--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/정이라고하자_빅나티(서동현)(Feat.10cm).xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/정이라고하자_빅나티(서동현)(Feat.10cm).xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_3cac86491b2c9236062467a070ede2a9</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_2bc5cc10d48db7b5760ef43e30fd1a76</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>주간 : 2022-02 ~ 2022-05</t>
+    <t>주간 : 2022-04 ~ 2022-05</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,34 +56,10 @@
     <t>정이라고하자</t>
   </si>
   <si>
-    <t>2022-02-07</t>
+    <t>2022-04-04</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-21</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
-    <t>2022-03-14</t>
-  </si>
-  <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
   </si>
   <si>
     <t>2022-04-11</t>
@@ -244,103 +220,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/정이라고하자_빅나티(서동현)(Feat.10cm).xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/naver_datalab/tj/정이라고하자_빅나티(서동현)(Feat.10cm).xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_2bc5cc10d48db7b5760ef43e30fd1a76</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_3cac86491b2c9236062467a070ede2a9</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>주간 : 2022-04 ~ 2022-05</t>
+    <t>주간 : 2022-02 ~ 2022-05</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,10 +56,34 @@
     <t>정이라고하자</t>
   </si>
   <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
     <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>2022-04-11</t>
@@ -220,39 +244,103 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
